--- a/alunos.xlsx
+++ b/alunos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,10 +446,15 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>data</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>entrada</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>saida</t>
         </is>
@@ -458,22 +463,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>13579-2468</t>
+          <t>PC-09876-0987</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Neymar Jr</t>
+          <t>Leandro Miguel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>02/10/2025</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>14:15</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>15:10</t>
         </is>
       </c>
     </row>

--- a/alunos.xlsx
+++ b/alunos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,6 +487,33 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>PC-00001-0002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Mauricio Souza</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>20/09/2025</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19:30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>20:30</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/alunos.xlsx
+++ b/alunos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -514,6 +514,33 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>PC-92991-9443</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Lucas Queiroz</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>03/10/2025</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>01:34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>03:00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/alunos.xlsx
+++ b/alunos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -541,6 +541,60 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>PC-00000-0001</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Lucas Queiroz</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>09/10/2025</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>23:12</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>00000-0002</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Lionel Messi</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>09/10/2025</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>21:00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/alunos.xlsx
+++ b/alunos.xlsx
@@ -55,10 +55,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -425,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,29 +437,34 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>nome</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>data</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>entrada</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>saida</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>duracao</t>
         </is>
       </c>
     </row>
@@ -486,6 +494,11 @@
           <t>00:32</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>00:55</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -511,6 +524,38 @@
       <c r="E3" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>PC01</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Adilson</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>10/10/2025</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>01:15</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>02:30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>01:15</t>
         </is>
       </c>
     </row>

--- a/alunos.xlsx
+++ b/alunos.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,57 +503,30 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PC02</t>
+          <t>PC01</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Paulo João</t>
+          <t>Adilson</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>31/07/2025</t>
+          <t>10/10/2025</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>22:14</t>
+          <t>01:15</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>00:00</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>PC01</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Adilson</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>10/10/2025</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>01:15</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
           <t>02:30</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>01:15</t>
         </is>

--- a/alunos.xlsx
+++ b/alunos.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,6 +532,38 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>PC36</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Pedro</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>14/10/2025</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>00:08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>02:00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>01:52</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
